--- a/Design/todo.xlsx
+++ b/Design/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l\Desktop\desktop\programming\Unity\Shooter\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A316A09-26EE-4BBB-BFCC-CDF408DBCCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4ABCDD-4336-44B3-A0C2-645C9DFB3C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,14 @@
   </si>
   <si>
     <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态模糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是录屏需要，帧率低的时候好看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -593,6 +601,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/todo.xlsx
+++ b/Design/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l\Desktop\desktop\programming\Unity\Shooter\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4ABCDD-4336-44B3-A0C2-645C9DFB3C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA77D386-60B5-4AC3-9836-C5098525CCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>主要是录屏需要，帧率低的时候好看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹碎裂特效优化：衰减的子弹相应弱化碎裂效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -573,6 +577,9 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -610,6 +617,14 @@
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Design/todo.xlsx
+++ b/Design/todo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l\Desktop\desktop\programming\Unity\Shooter\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA77D386-60B5-4AC3-9836-C5098525CCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19A43AE-C910-434B-A233-0A2AA81C3940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>子弹碎裂特效优化：衰减的子弹相应弱化碎裂效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹改成scriptable object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player状态改成scriptable object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人采用scriptable object</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -627,6 +639,30 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
